--- a/Employee_Reports35/Jonel Catibog Katigbak Q0561.xlsx
+++ b/Employee_Reports35/Jonel Catibog Katigbak Q0561.xlsx
@@ -469,7 +469,7 @@
     <col width="13" customWidth="1" min="7" max="7"/>
     <col width="18" customWidth="1" min="8" max="8"/>
     <col width="13" customWidth="1" min="9" max="9"/>
-    <col width="11" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
     <col width="9" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -866,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -915,11 +915,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -964,11 +964,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1013,11 +1013,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1062,11 +1062,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1111,11 +1111,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1160,11 +1160,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1209,11 +1209,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1258,11 +1258,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1273,103 +1273,103 @@
       <c r="K17" s="3" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="n">
+      <c r="A18" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="4" t="inlineStr">
+      <c r="B18" s="3" t="inlineStr">
         <is>
           <t>LOTO (SOPs)</t>
         </is>
       </c>
-      <c r="C18" s="4" t="inlineStr">
+      <c r="C18" s="3" t="inlineStr">
         <is>
           <t>ELECTRICAL SAFETY</t>
         </is>
       </c>
-      <c r="D18" s="4" t="inlineStr">
+      <c r="D18" s="3" t="inlineStr">
         <is>
           <t>LSME-OHS-SOP-021</t>
         </is>
       </c>
-      <c r="E18" s="4" t="inlineStr">
+      <c r="E18" s="3" t="inlineStr">
         <is>
           <t>SOP</t>
         </is>
       </c>
-      <c r="F18" s="4" t="inlineStr">
-        <is>
-          <t>26-Aug-2024</t>
-        </is>
-      </c>
-      <c r="G18" s="4" t="inlineStr">
-        <is>
-          <t>26-Aug-2025</t>
-        </is>
-      </c>
-      <c r="H18" s="4" t="n">
-        <v>-69</v>
-      </c>
-      <c r="I18" s="4" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J18" s="4" t="inlineStr">
-        <is>
-          <t>NOT VALID</t>
-        </is>
-      </c>
-      <c r="K18" s="4" t="inlineStr"/>
+      <c r="F18" s="3" t="inlineStr">
+        <is>
+          <t>19-Oct-2025</t>
+        </is>
+      </c>
+      <c r="G18" s="3" t="inlineStr">
+        <is>
+          <t>19-Oct-2026</t>
+        </is>
+      </c>
+      <c r="H18" s="3" t="n">
+        <v>349</v>
+      </c>
+      <c r="I18" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J18" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K18" s="3" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="n">
+      <c r="A19" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="4" t="inlineStr">
+      <c r="B19" s="3" t="inlineStr">
         <is>
           <t>Equipment Operation Procedure
 (SOP-031) (SOPs)</t>
         </is>
       </c>
-      <c r="C19" s="4" t="inlineStr">
+      <c r="C19" s="3" t="inlineStr">
         <is>
           <t>CARGO</t>
         </is>
       </c>
-      <c r="D19" s="4" t="inlineStr">
+      <c r="D19" s="3" t="inlineStr">
         <is>
           <t>LSME-CRG-SOP-031</t>
         </is>
       </c>
-      <c r="E19" s="4" t="inlineStr">
+      <c r="E19" s="3" t="inlineStr">
         <is>
           <t>SOP</t>
         </is>
       </c>
-      <c r="F19" s="4" t="inlineStr">
-        <is>
-          <t>06-Jun-2024</t>
-        </is>
-      </c>
-      <c r="G19" s="4" t="inlineStr">
-        <is>
-          <t>06-Jun-2025</t>
-        </is>
-      </c>
-      <c r="H19" s="4" t="n">
-        <v>-150</v>
-      </c>
-      <c r="I19" s="4" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J19" s="4" t="inlineStr">
-        <is>
-          <t>NOT VALID</t>
-        </is>
-      </c>
-      <c r="K19" s="4" t="inlineStr"/>
+      <c r="F19" s="3" t="inlineStr">
+        <is>
+          <t>21-Sep-2025</t>
+        </is>
+      </c>
+      <c r="G19" s="3" t="inlineStr">
+        <is>
+          <t>21-Sep-2026</t>
+        </is>
+      </c>
+      <c r="H19" s="3" t="n">
+        <v>321</v>
+      </c>
+      <c r="I19" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J19" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K19" s="3" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
@@ -1406,11 +1406,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1443,11 +1443,11 @@
         </is>
       </c>
       <c r="H21" s="3" t="n">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J21" s="3" t="inlineStr">
@@ -1492,11 +1492,11 @@
         </is>
       </c>
       <c r="H22" s="3" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
@@ -1541,11 +1541,11 @@
         </is>
       </c>
       <c r="H23" s="3" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I23" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J23" s="3" t="inlineStr">
@@ -1578,11 +1578,11 @@
         </is>
       </c>
       <c r="H24" s="3" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I24" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J24" s="3" t="inlineStr">
@@ -1615,11 +1615,11 @@
         </is>
       </c>
       <c r="H25" s="3" t="n">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I25" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J25" s="3" t="inlineStr">

--- a/Employee_Reports35/Jonel Catibog Katigbak Q0561.xlsx
+++ b/Employee_Reports35/Jonel Catibog Katigbak Q0561.xlsx
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -866,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -915,11 +915,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -964,11 +964,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1013,11 +1013,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1062,11 +1062,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1111,11 +1111,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1160,11 +1160,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1209,11 +1209,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1258,11 +1258,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1307,11 +1307,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1357,11 +1357,11 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1406,11 +1406,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1443,11 +1443,11 @@
         </is>
       </c>
       <c r="H21" s="3" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J21" s="3" t="inlineStr">
@@ -1492,11 +1492,11 @@
         </is>
       </c>
       <c r="H22" s="3" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
@@ -1541,11 +1541,11 @@
         </is>
       </c>
       <c r="H23" s="3" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I23" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J23" s="3" t="inlineStr">
@@ -1578,11 +1578,11 @@
         </is>
       </c>
       <c r="H24" s="3" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I24" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J24" s="3" t="inlineStr">
@@ -1615,11 +1615,11 @@
         </is>
       </c>
       <c r="H25" s="3" t="n">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I25" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J25" s="3" t="inlineStr">
